--- a/_2ИСИП-722_ТерВер.xlsx
+++ b/_2ИСИП-722_ТерВер.xlsx
@@ -19,35 +19,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>2ИСИП-722: Теория вероятностей и математическая статистика (Сибирев И. В.) - II семестр</t>
   </si>
   <si>
-    <t>16янв</t>
-  </si>
-  <si>
-    <t>23янв</t>
-  </si>
-  <si>
-    <t>30янв</t>
-  </si>
-  <si>
-    <t>6фев</t>
-  </si>
-  <si>
-    <t>13фев</t>
-  </si>
-  <si>
-    <t>20фев</t>
-  </si>
-  <si>
     <t>Вострова Арина</t>
   </si>
   <si>
-    <t>Н</t>
-  </si>
-  <si>
     <t>Дороган Михаела</t>
   </si>
   <si>
@@ -130,6 +109,21 @@
   </si>
   <si>
     <t>Ялунин Максим</t>
+  </si>
+  <si>
+    <t>ДЗ_1</t>
+  </si>
+  <si>
+    <t>ДЗ_2</t>
+  </si>
+  <si>
+    <t>ДЗ_3</t>
+  </si>
+  <si>
+    <t>ДЗ_4</t>
+  </si>
+  <si>
+    <t>ДЗ_5</t>
   </si>
 </sst>
 </file>
@@ -510,7 +504,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -527,23 +521,21 @@
     </row>
     <row r="2" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
@@ -558,16 +550,12 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
@@ -576,7 +564,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -590,20 +578,12 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
@@ -612,68 +592,40 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="2">
         <v>5</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2">
-        <v>5</v>
-      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
@@ -682,27 +634,21 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2">
-        <v>5</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -716,19 +662,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" ht="13" x14ac:dyDescent="0.25">
@@ -736,17 +676,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2">
-        <v>5</v>
-      </c>
+      <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="13" x14ac:dyDescent="0.25">
@@ -754,77 +690,51 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="2">
-        <v>5</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -836,7 +746,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -850,7 +760,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -864,19 +774,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2">
-        <v>5</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="2">
-        <v>5</v>
-      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="13" x14ac:dyDescent="0.25">
@@ -884,59 +788,41 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2">
-        <v>5</v>
-      </c>
+      <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" ht="13" x14ac:dyDescent="0.25">
@@ -944,37 +830,27 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="2">
-        <v>5</v>
-      </c>
-      <c r="G24" s="2">
-        <v>5</v>
-      </c>
-      <c r="H24" s="2">
-        <v>5</v>
-      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" ht="13" x14ac:dyDescent="0.25">
@@ -982,14 +858,12 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
@@ -998,39 +872,27 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="2">
-        <v>5</v>
-      </c>
+      <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="2">
-        <v>5</v>
-      </c>
+      <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" ht="13" x14ac:dyDescent="0.25">
@@ -1038,13 +900,11 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -1054,18 +914,12 @@
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
@@ -1074,25 +928,21 @@
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1102,24 +952,12 @@
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C33" s="3">
-        <v>1</v>
-      </c>
-      <c r="D33" s="3">
-        <v>1</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1</v>
-      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/_2ИСИП-722_ТерВер.xlsx
+++ b/_2ИСИП-722_ТерВер.xlsx
@@ -504,7 +504,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:G2"/>
+      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -832,7 +832,9 @@
       <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2">
+        <v>5</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>

--- a/_2ИСИП-722_ТерВер.xlsx
+++ b/_2ИСИП-722_ТерВер.xlsx
@@ -500,11 +500,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -776,8 +776,12 @@
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="C20" s="2">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2">
+        <v>5</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>

--- a/_2ИСИП-722_ТерВер.xlsx
+++ b/_2ИСИП-722_ТерВер.xlsx
@@ -501,10 +501,10 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -720,8 +720,12 @@
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="C16" s="2">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>

--- a/_2ИСИП-722_ТерВер.xlsx
+++ b/_2ИСИП-722_ТерВер.xlsx
@@ -504,7 +504,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -566,9 +566,15 @@
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -664,9 +670,15 @@
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="2">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -752,7 +764,9 @@
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2">
+        <v>5</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>

--- a/_2ИСИП-722_ТерВер.xlsx
+++ b/_2ИСИП-722_ТерВер.xlsx
@@ -501,10 +501,10 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -840,8 +840,12 @@
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="C23" s="2">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2">
+        <v>5</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>

--- a/_2ИСИП-722_ТерВер.xlsx
+++ b/_2ИСИП-722_ТерВер.xlsx
@@ -504,7 +504,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -826,8 +826,12 @@
       <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="C22" s="2">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>5</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>

--- a/_2ИСИП-722_ТерВер.xlsx
+++ b/_2ИСИП-722_ТерВер.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>2ИСИП-722: Теория вероятностей и математическая статистика (Сибирев И. В.) - II семестр</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>ДЗ_5</t>
+  </si>
+  <si>
+    <t>сумма</t>
+  </si>
+  <si>
+    <t>ТК</t>
   </si>
 </sst>
 </file>
@@ -156,7 +162,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -179,11 +185,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -193,6 +208,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,13 +516,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -514,12 +532,12 @@
     <col min="3" max="8" width="5.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
@@ -536,8 +554,14 @@
         <v>34</v>
       </c>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -545,7 +569,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -558,8 +582,15 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <f>SUM(C4:I4)</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -578,8 +609,15 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <f t="shared" ref="J5:J32" si="0">SUM(C5:I5)</f>
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -592,8 +630,15 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -606,8 +651,15 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -620,8 +672,15 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -634,8 +693,15 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -648,8 +714,15 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -662,8 +735,15 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -682,8 +762,15 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -696,8 +783,15 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -710,8 +804,15 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -724,8 +825,15 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -742,8 +850,15 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -756,8 +871,15 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -772,8 +894,15 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -786,8 +915,15 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -804,8 +940,15 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -818,8 +961,15 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -836,8 +986,15 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -854,8 +1011,15 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -870,8 +1034,15 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -884,8 +1055,15 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -898,8 +1076,15 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -912,8 +1097,15 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -926,8 +1118,15 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -940,8 +1139,15 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -954,8 +1160,15 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -968,8 +1181,15 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -982,6 +1202,13 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C33" s="3"/>
@@ -993,6 +1220,18 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <conditionalFormatting sqref="J4:J32">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/_2ИСИП-722_ТерВер.xlsx
+++ b/_2ИСИП-722_ТерВер.xlsx
@@ -522,7 +522,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K33" sqref="K33"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>

--- a/_2ИСИП-722_ТерВер.xlsx
+++ b/_2ИСИП-722_ТерВер.xlsx
@@ -519,10 +519,10 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -576,15 +576,23 @@
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="J4">
         <f>SUM(C4:I4)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K4">
         <v>3</v>

--- a/_2ИСИП-722_ТерВер.xlsx
+++ b/_2ИСИП-722_ТерВер.xlsx
@@ -519,10 +519,10 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1099,15 +1099,23 @@
       <c r="B27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="C27" s="2">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2">
+        <v>5</v>
+      </c>
+      <c r="E27" s="2">
+        <v>5</v>
+      </c>
+      <c r="F27" s="2">
+        <v>5</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="J27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K27">
         <v>3</v>

--- a/_2ИСИП-722_ТерВер.xlsx
+++ b/_2ИСИП-722_ТерВер.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>2ИСИП-722: Теория вероятностей и математическая статистика (Сибирев И. В.) - II семестр</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>ТК</t>
+  </si>
+  <si>
+    <t>ДЗ_6</t>
   </si>
 </sst>
 </file>
@@ -519,10 +522,10 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -553,7 +556,9 @@
       <c r="G2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="J2" s="4" t="s">
         <v>35</v>
       </c>
@@ -737,15 +742,27 @@
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="C11" s="2">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5</v>
+      </c>
       <c r="J11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -854,13 +871,21 @@
       <c r="D16" s="2">
         <v>5</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="E16" s="2">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2">
+        <v>5</v>
+      </c>
+      <c r="G16" s="2">
+        <v>5</v>
+      </c>
+      <c r="H16" s="2">
+        <v>5</v>
+      </c>
       <c r="J16">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K16">
         <v>4</v>
@@ -917,15 +942,23 @@
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="C19" s="2">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2">
+        <v>5</v>
+      </c>
+      <c r="F19" s="2">
+        <v>5</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="J19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -944,13 +977,21 @@
       <c r="D20" s="2">
         <v>5</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2">
+        <v>5</v>
+      </c>
+      <c r="H20" s="2">
+        <v>5</v>
+      </c>
       <c r="J20">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K20">
         <v>4</v>
@@ -990,13 +1031,17 @@
       <c r="D22" s="2">
         <v>5</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="E22" s="2">
+        <v>5</v>
+      </c>
+      <c r="F22" s="2">
+        <v>5</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="J22">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K22">
         <v>4</v>
@@ -1212,15 +1257,21 @@
       <c r="B32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="C32" s="2">
+        <v>5</v>
+      </c>
+      <c r="D32" s="2">
+        <v>5</v>
+      </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="F32" s="2">
+        <v>5</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="J32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K32">
         <v>3</v>

--- a/_2ИСИП-722_ТерВер.xlsx
+++ b/_2ИСИП-722_ТерВер.xlsx
@@ -525,7 +525,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -700,15 +700,19 @@
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K9">
         <v>3</v>

--- a/_2ИСИП-722_ТерВер.xlsx
+++ b/_2ИСИП-722_ТерВер.xlsx
@@ -525,7 +525,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -806,15 +806,25 @@
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="C13" s="2">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2">
+        <v>5</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K13">
         <v>3</v>

--- a/_2ИСИП-722_ТерВер.xlsx
+++ b/_2ИСИП-722_ТерВер.xlsx
@@ -522,10 +522,10 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1250,15 +1250,21 @@
       <c r="B31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="C31" s="2">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2">
+        <v>5</v>
+      </c>
+      <c r="E31" s="2">
+        <v>5</v>
+      </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="J31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K31">
         <v>3</v>

--- a/_2ИСИП-722_ТерВер.xlsx
+++ b/_2ИСИП-722_ТерВер.xlsx
@@ -522,10 +522,10 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -936,14 +936,20 @@
       <c r="C18" s="2">
         <v>5</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="D18" s="2">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5</v>
+      </c>
+      <c r="F18" s="2">
+        <v>5</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="J18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K18">
         <v>4</v>

--- a/_2ИСИП-722_ТерВер.xlsx
+++ b/_2ИСИП-722_ТерВер.xlsx
@@ -522,10 +522,10 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -619,12 +619,14 @@
       <c r="E5" s="2">
         <v>5</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="J5">
         <f t="shared" ref="J5:J32" si="0">SUM(C5:I5)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K5">
         <v>5</v>
@@ -637,15 +639,23 @@
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -658,15 +668,23 @@
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -679,15 +697,23 @@
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -706,13 +732,17 @@
       <c r="D9" s="2">
         <v>5</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -725,15 +755,23 @@
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="J10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -788,12 +826,14 @@
       <c r="E12" s="2">
         <v>5</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="J12">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K12">
         <v>5</v>
@@ -837,15 +877,23 @@
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="J14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -858,15 +906,23 @@
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="J15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -912,15 +968,23 @@
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="J17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1024,15 +1088,23 @@
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="J21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1080,13 +1152,17 @@
       <c r="D23" s="2">
         <v>5</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="J23">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K23">
         <v>4</v>
@@ -1102,14 +1178,20 @@
       <c r="C24" s="2">
         <v>5</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="D24" s="2">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+      <c r="F24" s="2">
+        <v>2</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="J24">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K24">
         <v>4</v>
@@ -1122,15 +1204,23 @@
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="C25" s="2">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="J25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1143,15 +1233,23 @@
       <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="C26" s="2">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="J26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -1193,15 +1291,23 @@
       <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="C28" s="2">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="J28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -1214,15 +1320,23 @@
       <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="C29" s="2">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="J29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -1235,15 +1349,23 @@
       <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="J30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -1265,12 +1387,14 @@
       <c r="E31" s="2">
         <v>5</v>
       </c>
-      <c r="F31" s="2"/>
+      <c r="F31" s="2">
+        <v>2</v>
+      </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="J31">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -1289,7 +1413,9 @@
       <c r="D32" s="2">
         <v>5</v>
       </c>
-      <c r="E32" s="2"/>
+      <c r="E32" s="2">
+        <v>2</v>
+      </c>
       <c r="F32" s="2">
         <v>5</v>
       </c>
@@ -1297,7 +1423,7 @@
       <c r="H32" s="2"/>
       <c r="J32">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K32">
         <v>3</v>

--- a/_2ИСИП-722_ТерВер.xlsx
+++ b/_2ИСИП-722_ТерВер.xlsx
@@ -522,10 +522,10 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>

--- a/_2ИСИП-722_ТерВер.xlsx
+++ b/_2ИСИП-722_ТерВер.xlsx
@@ -522,10 +522,10 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -878,22 +878,26 @@
         <v>11</v>
       </c>
       <c r="C14" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E14" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F14" s="2">
-        <v>2</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="G14" s="2">
+        <v>5</v>
+      </c>
+      <c r="H14" s="2">
+        <v>5</v>
+      </c>
       <c r="J14">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="K14">
         <v>3</v>

--- a/_2ИСИП-722_ТерВер.xlsx
+++ b/_2ИСИП-722_ТерВер.xlsx
@@ -522,10 +522,10 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -733,16 +733,16 @@
         <v>5</v>
       </c>
       <c r="E9" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K9">
         <v>3</v>

--- a/_2ИСИП-722_ТерВер.xlsx
+++ b/_2ИСИП-722_ТерВер.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>2ИСИП-722: Теория вероятностей и математическая статистика (Сибирев И. В.) - II семестр</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>ДЗ_6</t>
+  </si>
+  <si>
+    <t>ДЗ_7</t>
   </si>
 </sst>
 </file>
@@ -165,7 +168,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -197,11 +200,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -213,6 +227,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -522,10 +539,10 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -540,7 +557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
@@ -559,6 +576,9 @@
       <c r="H2" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="J2" s="4" t="s">
         <v>35</v>
       </c>
@@ -566,7 +586,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -911,7 +931,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" s="2">
         <v>2</v>
@@ -923,10 +943,12 @@
         <v>2</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2">
+        <v>5</v>
+      </c>
       <c r="J15">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -957,9 +979,12 @@
       <c r="H16" s="2">
         <v>5</v>
       </c>
+      <c r="I16" s="5">
+        <v>5</v>
+      </c>
       <c r="J16">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K16">
         <v>4</v>
@@ -1077,9 +1102,12 @@
       <c r="H20" s="2">
         <v>5</v>
       </c>
+      <c r="I20" s="5">
+        <v>5</v>
+      </c>
       <c r="J20">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K20">
         <v>4</v>
@@ -1423,11 +1451,15 @@
       <c r="F32" s="2">
         <v>5</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="G32" s="2">
+        <v>5</v>
+      </c>
+      <c r="H32" s="2">
+        <v>5</v>
+      </c>
       <c r="J32">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="K32">
         <v>3</v>

--- a/_2ИСИП-722_ТерВер.xlsx
+++ b/_2ИСИП-722_ТерВер.xlsx
@@ -542,7 +542,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -934,21 +934,23 @@
         <v>5</v>
       </c>
       <c r="D15" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E15" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F15" s="2">
-        <v>2</v>
-      </c>
-      <c r="G15" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="G15" s="2">
+        <v>5</v>
+      </c>
       <c r="H15" s="2">
         <v>5</v>
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K15">
         <v>3</v>

--- a/_2ИСИП-722_ТерВер.xlsx
+++ b/_2ИСИП-722_ТерВер.xlsx
@@ -539,10 +539,10 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -640,13 +640,17 @@
         <v>5</v>
       </c>
       <c r="F5" s="2">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
       <c r="J5">
         <f t="shared" ref="J5:J32" si="0">SUM(C5:I5)</f>
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="K5">
         <v>5</v>
@@ -847,13 +851,17 @@
         <v>5</v>
       </c>
       <c r="F12" s="2">
-        <v>2</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="G12" s="2">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2">
+        <v>5</v>
+      </c>
       <c r="J12">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="K12">
         <v>5</v>

--- a/_2ИСИП-722_ТерВер.xlsx
+++ b/_2ИСИП-722_ТерВер.xlsx
@@ -542,7 +542,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -743,7 +743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -772,7 +772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -780,28 +780,35 @@
         <v>7</v>
       </c>
       <c r="C10" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E10" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2">
-        <v>2</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="G10" s="2">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2">
+        <v>5</v>
+      </c>
       <c r="J10">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="K10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>

--- a/_2ИСИП-722_ТерВер.xlsx
+++ b/_2ИСИП-722_ТерВер.xlsx
@@ -542,7 +542,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -722,22 +722,22 @@
         <v>5</v>
       </c>
       <c r="C8" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E8" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="K8">
         <v>3</v>

--- a/_2ИСИП-722_ТерВер.xlsx
+++ b/_2ИСИП-722_ТерВер.xlsx
@@ -542,7 +542,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -664,22 +664,24 @@
         <v>3</v>
       </c>
       <c r="C6" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E6" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2">
-        <v>2</v>
-      </c>
-      <c r="G6" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="K6">
         <v>3</v>

--- a/_2ИСИП-722_ТерВер.xlsx
+++ b/_2ИСИП-722_ТерВер.xlsx
@@ -542,7 +542,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1230,19 +1230,19 @@
         <v>5</v>
       </c>
       <c r="D24" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E24" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F24" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="J24">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="K24">
         <v>4</v>

--- a/_2ИСИП-722_ТерВер.xlsx
+++ b/_2ИСИП-722_ТерВер.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>2ИСИП-722: Теория вероятностей и математическая статистика (Сибирев И. В.) - II семестр</t>
   </si>
@@ -126,16 +126,13 @@
     <t>ДЗ_5</t>
   </si>
   <si>
-    <t>сумма</t>
-  </si>
-  <si>
-    <t>ТК</t>
-  </si>
-  <si>
     <t>ДЗ_6</t>
   </si>
   <si>
     <t>ДЗ_7</t>
+  </si>
+  <si>
+    <t>Лаб_1</t>
   </si>
 </sst>
 </file>
@@ -539,10 +536,10 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -574,17 +571,15 @@
         <v>34</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
@@ -615,13 +610,6 @@
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="J4">
-        <f>SUM(C4:I4)</f>
-        <v>20</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -646,13 +634,6 @@
         <v>5</v>
       </c>
       <c r="H5" s="2">
-        <v>5</v>
-      </c>
-      <c r="J5">
-        <f t="shared" ref="J5:J32" si="0">SUM(C5:I5)</f>
-        <v>30</v>
-      </c>
-      <c r="K5">
         <v>5</v>
       </c>
     </row>
@@ -679,13 +660,6 @@
         <v>5</v>
       </c>
       <c r="H6" s="2"/>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
     </row>
     <row r="7" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -708,13 +682,6 @@
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
     </row>
     <row r="8" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -737,13 +704,6 @@
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
     </row>
     <row r="9" spans="1:11" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -766,13 +726,6 @@
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
     </row>
     <row r="10" spans="1:11" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -802,13 +755,6 @@
       <c r="I10" s="2">
         <v>5</v>
       </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
     </row>
     <row r="11" spans="1:11" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -835,13 +781,6 @@
       <c r="H11" s="2">
         <v>5</v>
       </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
     </row>
     <row r="12" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -868,13 +807,6 @@
       <c r="H12" s="2">
         <v>5</v>
       </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="K12">
-        <v>5</v>
-      </c>
     </row>
     <row r="13" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -899,13 +831,6 @@
         <v>5</v>
       </c>
       <c r="H13" s="2"/>
-      <c r="J13">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
     </row>
     <row r="14" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -932,13 +857,6 @@
       <c r="H14" s="2">
         <v>5</v>
       </c>
-      <c r="J14">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
     </row>
     <row r="15" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -965,13 +883,6 @@
       <c r="H15" s="2">
         <v>5</v>
       </c>
-      <c r="J15">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
     </row>
     <row r="16" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1001,15 +912,8 @@
       <c r="I16" s="5">
         <v>5</v>
       </c>
-      <c r="J16">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="K16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1030,15 +934,8 @@
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="J17">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1059,15 +956,8 @@
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="J18">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="K18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1088,15 +978,8 @@
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="J19">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1124,15 +1007,8 @@
       <c r="I20" s="5">
         <v>5</v>
       </c>
-      <c r="J20">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="K20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1153,15 +1029,8 @@
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="J21">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1182,15 +1051,8 @@
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="J22">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="K22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1211,15 +1073,8 @@
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="J23">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="K23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1240,15 +1095,8 @@
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="J24">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="K24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1269,15 +1117,8 @@
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="J25">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1298,15 +1139,8 @@
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="J26">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1327,15 +1161,8 @@
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="J27">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1356,15 +1183,8 @@
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="J28">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1372,28 +1192,28 @@
         <v>26</v>
       </c>
       <c r="C29" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E29" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F29" s="2">
-        <v>2</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="J29">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="G29" s="2">
+        <v>5</v>
+      </c>
+      <c r="H29" s="2">
+        <v>5</v>
+      </c>
+      <c r="I29" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1414,15 +1234,8 @@
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="J30">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1443,15 +1256,8 @@
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="J31">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -1475,13 +1281,6 @@
       </c>
       <c r="H32" s="2">
         <v>5</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.25">

--- a/_2ИСИП-722_ТерВер.xlsx
+++ b/_2ИСИП-722_ТерВер.xlsx
@@ -212,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -227,6 +227,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -536,10 +539,10 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -913,7 +916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -935,7 +938,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -957,7 +960,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -979,7 +982,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1008,7 +1011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1030,7 +1033,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1052,7 +1055,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1074,7 +1077,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1096,7 +1099,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1118,7 +1121,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1140,7 +1143,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1162,7 +1165,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1184,7 +1187,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1213,7 +1216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1235,7 +1238,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1257,7 +1260,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -1280,6 +1283,9 @@
         <v>5</v>
       </c>
       <c r="H32" s="2">
+        <v>5</v>
+      </c>
+      <c r="J32" s="6">
         <v>5</v>
       </c>
     </row>

--- a/_2ИСИП-722_ТерВер.xlsx
+++ b/_2ИСИП-722_ТерВер.xlsx
@@ -536,13 +536,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
+      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -552,12 +552,12 @@
     <col min="3" max="8" width="5.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
@@ -584,7 +584,7 @@
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -592,7 +592,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -613,8 +613,12 @@
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <f>SUM(C4:J4)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -639,8 +643,12 @@
       <c r="H5" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <f t="shared" ref="L5:L32" si="0">SUM(C5:J5)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -663,8 +671,12 @@
         <v>5</v>
       </c>
       <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -685,8 +697,12 @@
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -707,8 +723,12 @@
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -729,8 +749,12 @@
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -758,8 +782,12 @@
       <c r="I10" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -784,8 +812,12 @@
       <c r="H11" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -810,8 +842,12 @@
       <c r="H12" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -834,8 +870,12 @@
         <v>5</v>
       </c>
       <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -860,8 +900,12 @@
       <c r="H14" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -886,8 +930,12 @@
       <c r="H15" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -915,8 +963,15 @@
       <c r="I16" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="J16" s="5">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -937,8 +992,12 @@
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -959,8 +1018,12 @@
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -981,8 +1044,12 @@
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1010,8 +1077,15 @@
       <c r="I20" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="J20" s="5">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1032,8 +1106,12 @@
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1054,8 +1132,12 @@
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1076,8 +1158,12 @@
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1096,10 +1182,18 @@
       <c r="F24" s="2">
         <v>5</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="G24" s="2">
+        <v>5</v>
+      </c>
+      <c r="H24" s="2">
+        <v>5</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1120,8 +1214,12 @@
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1142,8 +1240,12 @@
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1164,8 +1266,12 @@
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1186,8 +1292,12 @@
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1215,8 +1325,12 @@
       <c r="I29" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1237,8 +1351,12 @@
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1259,8 +1377,12 @@
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -1287,6 +1409,10 @@
       </c>
       <c r="J32" s="6">
         <v>5</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.25">
@@ -1300,6 +1426,18 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <conditionalFormatting sqref="J4:J32">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:L32">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/_2ИСИП-722_ТерВер.xlsx
+++ b/_2ИСИП-722_ТерВер.xlsx
@@ -539,7 +539,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
@@ -782,9 +782,12 @@
       <c r="I10" s="2">
         <v>5</v>
       </c>
+      <c r="J10" s="5">
+        <v>5</v>
+      </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1264,11 +1267,15 @@
       <c r="F27" s="2">
         <v>5</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="G27" s="2">
+        <v>5</v>
+      </c>
+      <c r="H27" s="2">
+        <v>5</v>
+      </c>
       <c r="L27">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="13" x14ac:dyDescent="0.25">

--- a/_2ИСИП-722_ТерВер.xlsx
+++ b/_2ИСИП-722_ТерВер.xlsx
@@ -542,7 +542,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1273,9 +1273,13 @@
       <c r="H27" s="2">
         <v>5</v>
       </c>
+      <c r="I27" s="5">
+        <v>5</v>
+      </c>
+      <c r="J27" s="5"/>
       <c r="L27">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="13" x14ac:dyDescent="0.25">

--- a/_2ИСИП-722_ТерВер.xlsx
+++ b/_2ИСИП-722_ТерВер.xlsx
@@ -539,10 +539,10 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
+      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1191,9 +1191,15 @@
       <c r="H24" s="2">
         <v>5</v>
       </c>
+      <c r="I24" s="5">
+        <v>5</v>
+      </c>
+      <c r="J24" s="6">
+        <v>5</v>
+      </c>
       <c r="L24">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="13" x14ac:dyDescent="0.25">

--- a/_2ИСИП-722_ТерВер.xlsx
+++ b/_2ИСИП-722_ТерВер.xlsx
@@ -542,7 +542,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -643,9 +643,15 @@
       <c r="H5" s="2">
         <v>5</v>
       </c>
+      <c r="I5" s="5">
+        <v>5</v>
+      </c>
+      <c r="J5" s="5">
+        <v>5</v>
+      </c>
       <c r="L5">
         <f t="shared" ref="L5:L32" si="0">SUM(C5:J5)</f>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="13" x14ac:dyDescent="0.25">
@@ -845,9 +851,15 @@
       <c r="H12" s="2">
         <v>5</v>
       </c>
+      <c r="I12" s="5">
+        <v>5</v>
+      </c>
+      <c r="J12" s="5">
+        <v>5</v>
+      </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="13" x14ac:dyDescent="0.25">

--- a/_2ИСИП-722_ТерВер.xlsx
+++ b/_2ИСИП-722_ТерВер.xlsx
@@ -539,10 +539,10 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1294,10 +1294,12 @@
       <c r="I27" s="5">
         <v>5</v>
       </c>
-      <c r="J27" s="5"/>
+      <c r="J27" s="5">
+        <v>5</v>
+      </c>
       <c r="L27">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="13" x14ac:dyDescent="0.25">

--- a/_2ИСИП-722_ТерВер.xlsx
+++ b/_2ИСИП-722_ТерВер.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>2ИСИП-722: Теория вероятностей и математическая статистика (Сибирев И. В.) - II семестр</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Лаб_1</t>
+  </si>
+  <si>
+    <t>очень хочет 4</t>
   </si>
 </sst>
 </file>
@@ -536,13 +539,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -884,10 +887,18 @@
       <c r="G13" s="2">
         <v>5</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2">
+        <v>5</v>
+      </c>
+      <c r="I13" s="5">
+        <v>5</v>
+      </c>
+      <c r="J13" s="5">
+        <v>5</v>
+      </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="13" x14ac:dyDescent="0.25">
@@ -986,7 +997,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1012,7 +1023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1038,7 +1049,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1064,7 +1075,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1100,7 +1111,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1126,7 +1137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1152,7 +1163,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1178,7 +1189,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1214,33 +1225,44 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="2">
-        <v>2</v>
-      </c>
-      <c r="D25" s="2">
-        <v>2</v>
-      </c>
-      <c r="E25" s="2">
-        <v>2</v>
-      </c>
-      <c r="F25" s="2">
-        <v>2</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="C25" s="5">
+        <v>5</v>
+      </c>
+      <c r="D25" s="5">
+        <v>5</v>
+      </c>
+      <c r="E25" s="5">
+        <v>5</v>
+      </c>
+      <c r="F25" s="5">
+        <v>5</v>
+      </c>
+      <c r="G25" s="5">
+        <v>5</v>
+      </c>
+      <c r="H25" s="2">
+        <v>5</v>
+      </c>
+      <c r="I25" s="5">
+        <v>5</v>
+      </c>
+      <c r="J25" s="5"/>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="N25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1266,7 +1288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1302,7 +1324,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1328,7 +1350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1361,7 +1383,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1387,7 +1409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1413,7 +1435,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -1457,6 +1479,30 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <conditionalFormatting sqref="J4:J32">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:L32">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1468,7 +1514,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L32">
+  <conditionalFormatting sqref="G25">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/_2ИСИП-722_ТерВер.xlsx
+++ b/_2ИСИП-722_ТерВер.xlsx
@@ -542,10 +542,10 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -756,11 +756,19 @@
       <c r="F9" s="2">
         <v>5</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="G9" s="2">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
+      <c r="I9" s="5">
+        <v>5</v>
+      </c>
+      <c r="J9" s="5"/>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/_2ИСИП-722_ТерВер.xlsx
+++ b/_2ИСИП-722_ТерВер.xlsx
@@ -545,7 +545,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1164,11 +1164,21 @@
       <c r="F22" s="2">
         <v>5</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="G22" s="2">
+        <v>5</v>
+      </c>
+      <c r="H22" s="2">
+        <v>5</v>
+      </c>
+      <c r="I22" s="5">
+        <v>5</v>
+      </c>
+      <c r="J22" s="5">
+        <v>5</v>
+      </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="13" x14ac:dyDescent="0.25">

--- a/_2ИСИП-722_ТерВер.xlsx
+++ b/_2ИСИП-722_ТерВер.xlsx
@@ -215,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -233,6 +233,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -542,10 +548,10 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -588,12 +594,30 @@
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8">
+        <v>1</v>
+      </c>
+      <c r="J3" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -614,11 +638,21 @@
       <c r="F4" s="2">
         <v>5</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="5">
+        <v>2</v>
+      </c>
+      <c r="J4" s="5">
+        <v>2</v>
+      </c>
       <c r="L4">
         <f>SUM(C4:J4)</f>
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="13" x14ac:dyDescent="0.25">
@@ -679,10 +713,18 @@
       <c r="G6" s="2">
         <v>5</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="5">
+        <v>2</v>
+      </c>
+      <c r="J6" s="5">
+        <v>2</v>
+      </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="13" x14ac:dyDescent="0.25">
@@ -704,11 +746,21 @@
       <c r="F7" s="2">
         <v>2</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="G7" s="2">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="6">
+        <v>2</v>
+      </c>
+      <c r="J7" s="7">
+        <v>2</v>
+      </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="13" x14ac:dyDescent="0.25">
@@ -730,11 +782,21 @@
       <c r="F8" s="2">
         <v>5</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="2">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="I8" s="6">
+        <v>2</v>
+      </c>
+      <c r="J8" s="7">
+        <v>2</v>
+      </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -765,10 +827,12 @@
       <c r="I9" s="5">
         <v>5</v>
       </c>
-      <c r="J9" s="5"/>
+      <c r="J9" s="5">
+        <v>2</v>
+      </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -832,9 +896,15 @@
       <c r="H11" s="2">
         <v>5</v>
       </c>
+      <c r="I11" s="6">
+        <v>2</v>
+      </c>
+      <c r="J11" s="7">
+        <v>2</v>
+      </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="13" x14ac:dyDescent="0.25">
@@ -934,9 +1004,15 @@
       <c r="H14" s="2">
         <v>5</v>
       </c>
+      <c r="I14" s="6">
+        <v>2</v>
+      </c>
+      <c r="J14" s="7">
+        <v>2</v>
+      </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="13" x14ac:dyDescent="0.25">
@@ -964,9 +1040,15 @@
       <c r="H15" s="2">
         <v>5</v>
       </c>
+      <c r="I15" s="6">
+        <v>2</v>
+      </c>
+      <c r="J15" s="7">
+        <v>2</v>
+      </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="13" x14ac:dyDescent="0.25">
@@ -1024,11 +1106,21 @@
       <c r="F17" s="2">
         <v>2</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="G17" s="2">
+        <v>2</v>
+      </c>
+      <c r="H17" s="2">
+        <v>2</v>
+      </c>
+      <c r="I17" s="6">
+        <v>2</v>
+      </c>
+      <c r="J17" s="7">
+        <v>2</v>
+      </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="13" x14ac:dyDescent="0.25">
@@ -1050,11 +1142,21 @@
       <c r="F18" s="2">
         <v>5</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="G18" s="2">
+        <v>2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>2</v>
+      </c>
+      <c r="I18" s="6">
+        <v>2</v>
+      </c>
+      <c r="J18" s="7">
+        <v>2</v>
+      </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="13" x14ac:dyDescent="0.25">
@@ -1076,11 +1178,21 @@
       <c r="F19" s="2">
         <v>5</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="G19" s="2">
+        <v>2</v>
+      </c>
+      <c r="H19" s="2">
+        <v>2</v>
+      </c>
+      <c r="I19" s="6">
+        <v>2</v>
+      </c>
+      <c r="J19" s="7">
+        <v>2</v>
+      </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="13" x14ac:dyDescent="0.25">
@@ -1138,11 +1250,21 @@
       <c r="F21" s="2">
         <v>2</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="G21" s="2">
+        <v>2</v>
+      </c>
+      <c r="H21" s="2">
+        <v>2</v>
+      </c>
+      <c r="I21" s="6">
+        <v>2</v>
+      </c>
+      <c r="J21" s="7">
+        <v>2</v>
+      </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="13" x14ac:dyDescent="0.25">
@@ -1200,11 +1322,21 @@
       <c r="F23" s="2">
         <v>2</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="G23" s="2">
+        <v>2</v>
+      </c>
+      <c r="H23" s="2">
+        <v>2</v>
+      </c>
+      <c r="I23" s="6">
+        <v>2</v>
+      </c>
+      <c r="J23" s="7">
+        <v>2</v>
+      </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1271,10 +1403,12 @@
       <c r="I25" s="5">
         <v>5</v>
       </c>
-      <c r="J25" s="5"/>
+      <c r="J25" s="5">
+        <v>2</v>
+      </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N25" t="s">
         <v>38</v>
@@ -1299,11 +1433,21 @@
       <c r="F26" s="2">
         <v>2</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="G26" s="2">
+        <v>2</v>
+      </c>
+      <c r="H26" s="2">
+        <v>2</v>
+      </c>
+      <c r="I26" s="6">
+        <v>2</v>
+      </c>
+      <c r="J26" s="7">
+        <v>2</v>
+      </c>
       <c r="L26">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="13" x14ac:dyDescent="0.25">
@@ -1361,11 +1505,21 @@
       <c r="F28" s="2">
         <v>2</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="G28" s="2">
+        <v>2</v>
+      </c>
+      <c r="H28" s="2">
+        <v>2</v>
+      </c>
+      <c r="I28" s="6">
+        <v>2</v>
+      </c>
+      <c r="J28" s="7">
+        <v>2</v>
+      </c>
       <c r="L28">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="13" x14ac:dyDescent="0.25">
@@ -1396,9 +1550,12 @@
       <c r="I29" s="5">
         <v>5</v>
       </c>
+      <c r="J29" s="7">
+        <v>2</v>
+      </c>
       <c r="L29">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="13" x14ac:dyDescent="0.25">
@@ -1420,11 +1577,21 @@
       <c r="F30" s="2">
         <v>2</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="G30" s="2">
+        <v>2</v>
+      </c>
+      <c r="H30" s="2">
+        <v>2</v>
+      </c>
+      <c r="I30" s="6">
+        <v>2</v>
+      </c>
+      <c r="J30" s="7">
+        <v>2</v>
+      </c>
       <c r="L30">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="13" x14ac:dyDescent="0.25">
@@ -1446,11 +1613,21 @@
       <c r="F31" s="2">
         <v>2</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="G31" s="2">
+        <v>2</v>
+      </c>
+      <c r="H31" s="2">
+        <v>2</v>
+      </c>
+      <c r="I31" s="6">
+        <v>2</v>
+      </c>
+      <c r="J31" s="7">
+        <v>2</v>
+      </c>
       <c r="L31">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="13" x14ac:dyDescent="0.25">
@@ -1478,12 +1655,15 @@
       <c r="H32" s="2">
         <v>5</v>
       </c>
+      <c r="I32" s="6">
+        <v>2</v>
+      </c>
       <c r="J32" s="6">
         <v>5</v>
       </c>
       <c r="L32">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.25">

--- a/_2ИСИП-722_ТерВер.xlsx
+++ b/_2ИСИП-722_ТерВер.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>2ИСИП-722: Теория вероятностей и математическая статистика (Сибирев И. В.) - II семестр</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>очень хочет 4</t>
+  </si>
+  <si>
+    <t>Сумм</t>
   </si>
 </sst>
 </file>
@@ -548,25 +551,26 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J31" sqref="J31"/>
+      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.1796875" customWidth="1"/>
     <col min="2" max="2" width="41.6328125" customWidth="1"/>
-    <col min="3" max="8" width="5.1796875" customWidth="1"/>
+    <col min="3" max="10" width="4.90625" customWidth="1"/>
+    <col min="12" max="12" width="4.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
@@ -592,8 +596,11 @@
         <v>37</v>
       </c>
       <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1">
         <v>1</v>
       </c>
@@ -619,7 +626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -639,23 +646,26 @@
         <v>5</v>
       </c>
       <c r="G4" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <f>SUM(C4:J4)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="M4" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -690,8 +700,11 @@
         <f t="shared" ref="L5:L32" si="0">SUM(C5:J5)</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="M5" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -714,20 +727,23 @@
         <v>5</v>
       </c>
       <c r="H6" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="M6" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -735,35 +751,38 @@
         <v>4</v>
       </c>
       <c r="C7" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -783,23 +802,26 @@
         <v>5</v>
       </c>
       <c r="G8" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="M8" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -828,14 +850,17 @@
         <v>5</v>
       </c>
       <c r="J9" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="M9" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -870,8 +895,11 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M10" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -897,17 +925,20 @@
         <v>5</v>
       </c>
       <c r="I11" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="M11" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -942,8 +973,11 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="M12" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -978,8 +1012,11 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="M13" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1005,17 +1042,20 @@
         <v>5</v>
       </c>
       <c r="I14" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="M14" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1041,17 +1081,20 @@
         <v>5</v>
       </c>
       <c r="I15" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1085,6 +1128,9 @@
       <c r="L16">
         <f t="shared" si="0"/>
         <v>40</v>
+      </c>
+      <c r="M16" s="7">
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="13" x14ac:dyDescent="0.25">
@@ -1095,32 +1141,35 @@
         <v>14</v>
       </c>
       <c r="C17" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="M17" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="13" x14ac:dyDescent="0.25">
@@ -1143,20 +1192,23 @@
         <v>5</v>
       </c>
       <c r="G18" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="M18" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="13" x14ac:dyDescent="0.25">
@@ -1179,20 +1231,23 @@
         <v>5</v>
       </c>
       <c r="G19" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="M19" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="13" x14ac:dyDescent="0.25">
@@ -1230,6 +1285,9 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
+      <c r="M20" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -1239,32 +1297,35 @@
         <v>18</v>
       </c>
       <c r="C21" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D21" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E21" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="M21" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="13" x14ac:dyDescent="0.25">
@@ -1302,6 +1363,9 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
+      <c r="M22" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -1317,26 +1381,29 @@
         <v>5</v>
       </c>
       <c r="E23" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F23" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G23" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H23" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>10</v>
+      </c>
+      <c r="M23" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1374,6 +1441,9 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
+      <c r="M24" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
@@ -1404,11 +1474,14 @@
         <v>5</v>
       </c>
       <c r="J25" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="M25" s="7">
+        <v>5</v>
       </c>
       <c r="N25" t="s">
         <v>38</v>
@@ -1422,32 +1495,35 @@
         <v>23</v>
       </c>
       <c r="C26" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D26" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F26" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G26" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H26" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="13" x14ac:dyDescent="0.25">
@@ -1485,6 +1561,9 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
+      <c r="M27" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -1494,32 +1573,35 @@
         <v>25</v>
       </c>
       <c r="C28" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E28" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F28" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G28" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H28" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="M28" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="13" x14ac:dyDescent="0.25">
@@ -1551,11 +1633,14 @@
         <v>5</v>
       </c>
       <c r="J29" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="M29" s="7">
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="13" x14ac:dyDescent="0.25">
@@ -1566,32 +1651,35 @@
         <v>27</v>
       </c>
       <c r="C30" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D30" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E30" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F30" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G30" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H30" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="M30" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="13" x14ac:dyDescent="0.25">
@@ -1611,23 +1699,26 @@
         <v>5</v>
       </c>
       <c r="F31" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G31" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="M31" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="13" x14ac:dyDescent="0.25">
@@ -1644,7 +1735,7 @@
         <v>5</v>
       </c>
       <c r="E32" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F32" s="2">
         <v>5</v>
@@ -1656,14 +1747,17 @@
         <v>5</v>
       </c>
       <c r="I32" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" s="6">
         <v>5</v>
       </c>
       <c r="L32">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="M32" s="7">
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.25">
@@ -1676,8 +1770,8 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <conditionalFormatting sqref="J4:J32">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="C4:J32">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1689,18 +1783,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L32">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1712,7 +1794,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
+  <conditionalFormatting sqref="M4:M32">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/_2ИСИП-722_ТерВер.xlsx
+++ b/_2ИСИП-722_ТерВер.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>2ИСИП-722: Теория вероятностей и математическая статистика (Сибирев И. В.) - II семестр</t>
   </si>
@@ -135,13 +135,13 @@
     <t>Лаб_1</t>
   </si>
   <si>
-    <t>очень хочет 4</t>
-  </si>
-  <si>
     <t>Сумм</t>
   </si>
   <si>
-    <t>хочу 4</t>
+    <t>ТК_оригинал</t>
+  </si>
+  <si>
+    <t>на момент выгрузки в элжуре</t>
   </si>
 </sst>
 </file>
@@ -554,13 +554,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M33" sqref="M33"/>
+      <selection pane="bottomRight" activeCell="P4" sqref="P4:P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -571,12 +571,12 @@
     <col min="12" max="12" width="4.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
@@ -603,10 +603,16 @@
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1">
         <v>1</v>
       </c>
@@ -635,7 +641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -673,8 +679,15 @@
       <c r="M4" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="O4" s="2">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <f>O4-M4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -712,8 +725,15 @@
       <c r="M5" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="O5" s="2">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P32" si="1">O5-M5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -751,8 +771,15 @@
       <c r="M6" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="O6" s="2">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -790,8 +817,15 @@
       <c r="M7" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="O7" s="2">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -829,8 +863,15 @@
       <c r="M8" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O8" s="2">
+        <v>4</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -868,8 +909,15 @@
       <c r="M9" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O9" s="2">
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -907,8 +955,15 @@
       <c r="M10" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O10" s="2">
+        <v>5</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -946,8 +1001,15 @@
       <c r="M11" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="O11" s="2">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -985,8 +1047,15 @@
       <c r="M12" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="O12" s="2">
+        <v>5</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1024,8 +1093,15 @@
       <c r="M13" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="O13" s="2">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1063,8 +1139,15 @@
       <c r="M14" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="O14" s="2">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1102,8 +1185,15 @@
       <c r="M15" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="O15" s="2">
+        <v>5</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1141,8 +1231,15 @@
       <c r="M16" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+      <c r="O16" s="2">
+        <v>5</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1180,8 +1277,15 @@
       <c r="M17" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+      <c r="O17" s="2">
+        <v>3</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1219,8 +1323,15 @@
       <c r="M18" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+      <c r="O18" s="2">
+        <v>4</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1258,8 +1369,15 @@
       <c r="M19" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+      <c r="O19" s="2">
+        <v>4</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1297,8 +1415,15 @@
       <c r="M20" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+      <c r="O20" s="2">
+        <v>5</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1336,8 +1461,15 @@
       <c r="M21" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+      <c r="O21" s="2">
+        <v>3</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1375,8 +1507,15 @@
       <c r="M22" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+      <c r="O22" s="2">
+        <v>5</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1408,14 +1547,21 @@
         <v>5</v>
       </c>
       <c r="L23">
-        <f t="shared" ref="L23" si="1">SUM(C23:J23)</f>
+        <f t="shared" ref="L23" si="2">SUM(C23:J23)</f>
         <v>40</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O23" s="2">
+        <v>3</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1453,8 +1599,15 @@
       <c r="M24" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O24" s="2">
+        <v>5</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1492,11 +1645,15 @@
       <c r="M25" s="7">
         <v>5</v>
       </c>
-      <c r="N25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O25" s="2">
+        <v>5</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1534,11 +1691,15 @@
       <c r="M26" s="7">
         <v>5</v>
       </c>
-      <c r="N26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+      <c r="O26" s="2">
+        <v>3</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1576,8 +1737,15 @@
       <c r="M27" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+      <c r="O27" s="2">
+        <v>5</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1615,8 +1783,15 @@
       <c r="M28" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+      <c r="O28" s="2">
+        <v>3</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1654,8 +1829,15 @@
       <c r="M29" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+      <c r="O29" s="2">
+        <v>5</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1693,8 +1875,15 @@
       <c r="M30" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+      <c r="O30" s="2">
+        <v>3</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1732,11 +1921,15 @@
       <c r="M31" s="7">
         <v>4</v>
       </c>
-      <c r="O31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+      <c r="O31" s="2">
+        <v>4</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -1774,8 +1967,15 @@
       <c r="M32" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="O32" s="2">
+        <v>5</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
